--- a/anne_pro_macros.xlsx
+++ b/anne_pro_macros.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="What they default keys do" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
   <si>
     <t>Doesn't follow pattern</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>etc</t>
   </si>
   <si>
     <t>ENTER</t>
@@ -632,10 +629,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -696,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -706,6 +705,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -715,6 +715,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1046,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1109,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="7"/>
       <c r="L2" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2448,20 +2449,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D91"/>
+  <dimension ref="C3:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -2485,7 +2486,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -2769,392 +2770,448 @@
       </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="C45">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="C47">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49">
-        <v>53</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50">
-        <v>54</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51">
-        <v>55</v>
-      </c>
-      <c r="D51" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56">
-        <v>60</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57">
+        <v>53</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="C60">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="C62">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="C64">
-        <v>68</v>
-      </c>
-      <c r="D64" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="C76">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="3:4">
       <c r="C80">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="C87">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="C89">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90">
+        <v>86</v>
+      </c>
+      <c r="D90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91">
+        <v>87</v>
+      </c>
+      <c r="D91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93">
+        <v>89</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94">
+        <v>90</v>
+      </c>
+      <c r="D94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96">
+        <v>92</v>
+      </c>
+      <c r="D96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98">
         <v>94</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D98" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="3:4">
-      <c r="D91" t="s">
-        <v>127</v>
+    <row r="99" spans="3:4">
+      <c r="D99" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
